--- a/Versão5/PISO/Ontologia_PISOS.xlsx
+++ b/Versão5/PISO/Ontologia_PISOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\PISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C436AA-DC6C-4C90-BFFE-E1BF73966A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417E368-8F30-4FD0-887C-75E35A47AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="257">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -546,12 +546,6 @@
     <t>Pedra.Sintética</t>
   </si>
   <si>
-    <t>Piso.Porcelanato</t>
-  </si>
-  <si>
-    <t>Piso.Cerâmico</t>
-  </si>
-  <si>
     <t>Bloco.Vídro</t>
   </si>
   <si>
@@ -799,6 +793,57 @@
   </si>
   <si>
     <t>Mortero para pegar piezas cerámicas o porcelanatos en suelos o paredes.</t>
+  </si>
+  <si>
+    <t>categoria.revit</t>
+  </si>
+  <si>
+    <t>classe.ifc</t>
+  </si>
+  <si>
+    <t>PIS.01</t>
+  </si>
+  <si>
+    <t>Peça.Cerâmica</t>
+  </si>
+  <si>
+    <t>é.coberto.com</t>
+  </si>
+  <si>
+    <t>"IfcCoveringFLOORING"</t>
+  </si>
+  <si>
+    <t>"OST_FloorsFinish1"</t>
+  </si>
+  <si>
+    <t>PIS.02</t>
+  </si>
+  <si>
+    <t>Peça.Porcelanato</t>
+  </si>
+  <si>
+    <t>"Piso paginado de taco."</t>
+  </si>
+  <si>
+    <t>"Piso paginado de cerâmica."</t>
+  </si>
+  <si>
+    <t>TAC.7x21</t>
+  </si>
+  <si>
+    <t>"Peça de taco para pisos de madeira."</t>
+  </si>
+  <si>
+    <t>"Salas"</t>
+  </si>
+  <si>
+    <t>"Madipé"</t>
+  </si>
+  <si>
+    <t>paginado.como</t>
+  </si>
+  <si>
+    <t>"escamas"</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,191 +1342,17 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="157">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="70">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1517,696 +1388,6 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3335,7 +2516,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3449,7 +2630,7 @@
         <v>67</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3458,7 +2639,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45915.42689490741</v>
+        <v>45915.59234722222</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3490,7 +2671,7 @@
         <v>73</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -3498,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3511,9 +2692,9 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W33"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3705,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>9</v>
@@ -3739,10 +2920,10 @@
         <v>Assentamento</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
@@ -3784,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>9</v>
@@ -3818,10 +2999,10 @@
         <v>Chapisco</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
@@ -3863,7 +3044,7 @@
         <v>97</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>9</v>
@@ -3897,10 +3078,10 @@
         <v>Emboço</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
@@ -3942,7 +3123,7 @@
         <v>97</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>9</v>
@@ -3976,10 +3157,10 @@
         <v>Reboco</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q6" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -4055,10 +3236,10 @@
         <v>Niveladora</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
@@ -4137,7 +3318,7 @@
         <v>105</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -4416,7 +3597,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>9</v>
@@ -4450,10 +3631,10 @@
         <v>Baritada</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -4492,10 +3673,10 @@
         <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>9</v>
@@ -4529,10 +3710,10 @@
         <v>Asfaltado</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -4571,10 +3752,10 @@
         <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>9</v>
@@ -4608,10 +3789,10 @@
         <v>Concretado</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -4650,7 +3831,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>149</v>
@@ -4687,10 +3868,10 @@
         <v>Modular.Automotivo</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -4729,10 +3910,10 @@
         <v>107</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>9</v>
@@ -4766,10 +3947,10 @@
         <v>Bloquete.Carro</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -4845,10 +4026,10 @@
         <v>Tátil.Alerta</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -4924,10 +4105,10 @@
         <v>Tátil.Direcional</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
@@ -5003,10 +4184,10 @@
         <v>Intertravado</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
@@ -5082,10 +4263,10 @@
         <v>Fulget</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>9</v>
@@ -5127,7 +4308,7 @@
         <v>145</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>9</v>
@@ -5161,10 +4342,10 @@
         <v>Bloquete.Grama</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
@@ -5240,10 +4421,10 @@
         <v>Taco</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
@@ -5319,10 +4500,10 @@
         <v>Vinílico</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>9</v>
@@ -5364,7 +4545,7 @@
         <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>9</v>
@@ -5395,13 +4576,13 @@
       </c>
       <c r="O24" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Piso.Cerâmico</v>
+        <v>Peça.Cerâmica</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>9</v>
@@ -5443,7 +4624,7 @@
         <v>147</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>9</v>
@@ -5474,13 +4655,13 @@
       </c>
       <c r="O25" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Piso.Porcelanato</v>
+        <v>Peça.Porcelanato</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>9</v>
@@ -5556,10 +4737,10 @@
         <v>Pedra.Natural</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>9</v>
@@ -5635,10 +4816,10 @@
         <v>Pedra.Sintética</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="R27" s="27" t="s">
         <v>9</v>
@@ -5714,10 +4895,10 @@
         <v>Elevado</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R28" s="27" t="s">
         <v>9</v>
@@ -5759,7 +4940,7 @@
         <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>9</v>
@@ -5793,10 +4974,10 @@
         <v>Bloco.Vídro</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="R29" s="27" t="s">
         <v>9</v>
@@ -5872,10 +5053,10 @@
         <v>Carpete</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R30" s="27" t="s">
         <v>9</v>
@@ -5917,7 +5098,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>9</v>
@@ -5951,10 +5132,10 @@
         <v>Manta</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R31" s="27" t="s">
         <v>9</v>
@@ -5996,7 +5177,7 @@
         <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>9</v>
@@ -6030,10 +5211,10 @@
         <v>Cimentado</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R32" s="27" t="s">
         <v>9</v>
@@ -6075,7 +5256,7 @@
         <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>9</v>
@@ -6109,10 +5290,10 @@
         <v>Gramado</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R33" s="27" t="s">
         <v>9</v>
@@ -6142,90 +5323,88 @@
   <conditionalFormatting sqref="F1">
     <cfRule type="duplicateValues" dxfId="69" priority="1291"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="68" priority="1251"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1253"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1255"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1251"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1252"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1253"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1254"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1255"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1256"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="duplicateValues" dxfId="62" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="51" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="46" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="14"/>
+  <conditionalFormatting sqref="F30:F33">
+    <cfRule type="duplicateValues" dxfId="43" priority="2167"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2168"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2169"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2170"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2171"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2172"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2173"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2174"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2175"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="2176"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2177"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="32" priority="2178"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2179"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2180"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="2181"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F1048576">
+    <cfRule type="duplicateValues" dxfId="27" priority="2193"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P8">
-    <cfRule type="duplicateValues" dxfId="44" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q7">
-    <cfRule type="duplicateValues" dxfId="33" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F33">
-    <cfRule type="duplicateValues" dxfId="17" priority="2167"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2168"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="2169"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="2170"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="2171"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2172"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="2173"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="2174"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2175"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2176"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="2177"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="6" priority="2178"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="2179"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2180"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2181"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2182"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2193"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2194"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6444,7 +5623,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6458,18 +5637,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AS28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.921875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.07421875" style="53" customWidth="1"/>
     <col min="4" max="4" width="4.07421875" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.3046875" style="59" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.3046875" style="58" bestFit="1" customWidth="1"/>
@@ -6478,16 +5657,16 @@
     <col min="9" max="9" width="2.84375" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.4609375" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.84375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.4609375" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.53515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.07421875" style="58" customWidth="1"/>
+    <col min="13" max="13" width="5.61328125" style="58" customWidth="1"/>
+    <col min="14" max="14" width="7.61328125" style="58" customWidth="1"/>
     <col min="15" max="15" width="8.69140625" style="58" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.07421875" style="58" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.3046875" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.921875" style="58" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.3828125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="9.921875" style="58" customWidth="1"/>
+    <col min="20" max="20" width="4.53515625" style="58" customWidth="1"/>
+    <col min="21" max="21" width="11.3046875" style="58" customWidth="1"/>
     <col min="22" max="22" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="1.921875" style="58" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
@@ -6657,7 +5836,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>88</v>
@@ -6666,7 +5845,7 @@
         <v>91</v>
       </c>
       <c r="E2" s="44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>9</v>
@@ -6794,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>106</v>
@@ -6803,7 +5982,7 @@
         <v>91</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>9</v>
@@ -6931,7 +6110,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>106</v>
@@ -6940,7 +6119,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>9</v>
@@ -7616,16 +6795,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>9</v>
@@ -7655,13 +6834,13 @@
         <v>111</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P9" s="43" t="s">
         <v>93</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R9" s="43" t="s">
         <v>9</v>
@@ -7753,16 +6932,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>94</v>
@@ -7774,13 +6953,13 @@
         <v>95</v>
       </c>
       <c r="I10" s="55">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J10" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K10" s="55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L10" s="56" t="s">
         <v>139</v>
@@ -7792,13 +6971,13 @@
         <v>111</v>
       </c>
       <c r="O10" s="57" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>93</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="R10" s="43" t="s">
         <v>9</v>
@@ -7890,16 +7069,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>94</v>
@@ -7911,25 +7090,25 @@
         <v>95</v>
       </c>
       <c r="I11" s="55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K11" s="55">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N11" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P11" s="43" t="s">
         <v>93</v>
@@ -8027,16 +7206,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>94</v>
@@ -8048,25 +7227,25 @@
         <v>95</v>
       </c>
       <c r="I12" s="55">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K12" s="55">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N12" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P12" s="43" t="s">
         <v>93</v>
@@ -8164,16 +7343,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>94</v>
@@ -8185,19 +7364,19 @@
         <v>95</v>
       </c>
       <c r="I13" s="55">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="55">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L13" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N13" s="52" t="s">
         <v>111</v>
@@ -8301,16 +7480,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D14" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>94</v>
@@ -8328,13 +7507,13 @@
         <v>96</v>
       </c>
       <c r="K14" s="55">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="52" t="s">
         <v>111</v>
@@ -8438,16 +7617,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D15" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>94</v>
@@ -8465,7 +7644,7 @@
         <v>96</v>
       </c>
       <c r="K15" s="55">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>139</v>
@@ -8575,16 +7754,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D16" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>94</v>
@@ -8602,19 +7781,19 @@
         <v>96</v>
       </c>
       <c r="K16" s="55">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L16" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M16" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N16" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P16" s="43" t="s">
         <v>93</v>
@@ -8712,16 +7891,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D17" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>94</v>
@@ -8733,25 +7912,25 @@
         <v>95</v>
       </c>
       <c r="I17" s="55">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K17" s="55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L17" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N17" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P17" s="43" t="s">
         <v>93</v>
@@ -8849,16 +8028,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D18" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>94</v>
@@ -8870,13 +8049,13 @@
         <v>95</v>
       </c>
       <c r="I18" s="55">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K18" s="55">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L18" s="56" t="s">
         <v>139</v>
@@ -8986,16 +8165,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D19" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>94</v>
@@ -9013,13 +8192,13 @@
         <v>96</v>
       </c>
       <c r="K19" s="55">
-        <v>29.8</v>
+        <v>80</v>
       </c>
       <c r="L19" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M19" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N19" s="52" t="s">
         <v>111</v>
@@ -9123,16 +8302,16 @@
         <v>20</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D20" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>94</v>
@@ -9150,7 +8329,7 @@
         <v>96</v>
       </c>
       <c r="K20" s="55">
-        <v>14.5</v>
+        <v>29.8</v>
       </c>
       <c r="L20" s="56" t="s">
         <v>139</v>
@@ -9260,16 +8439,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D21" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>94</v>
@@ -9287,7 +8466,7 @@
         <v>96</v>
       </c>
       <c r="K21" s="55">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="L21" s="56" t="s">
         <v>139</v>
@@ -9397,16 +8576,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D22" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>94</v>
@@ -9418,19 +8597,19 @@
         <v>95</v>
       </c>
       <c r="I22" s="55">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K22" s="55">
-        <v>90</v>
+        <v>9.5</v>
       </c>
       <c r="L22" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M22" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" s="52" t="s">
         <v>111</v>
@@ -9534,16 +8713,16 @@
         <v>23</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D23" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>94</v>
@@ -9561,13 +8740,13 @@
         <v>96</v>
       </c>
       <c r="K23" s="55">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="L23" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N23" s="52" t="s">
         <v>111</v>
@@ -9671,16 +8850,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D24" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>94</v>
@@ -9692,19 +8871,19 @@
         <v>95</v>
       </c>
       <c r="I24" s="55">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K24" s="55">
-        <v>60</v>
+        <v>14.5</v>
       </c>
       <c r="L24" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N24" s="52" t="s">
         <v>111</v>
@@ -9808,16 +8987,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="D25" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>94</v>
@@ -9835,7 +9014,7 @@
         <v>96</v>
       </c>
       <c r="K25" s="55">
-        <v>29.4</v>
+        <v>60</v>
       </c>
       <c r="L25" s="56" t="s">
         <v>139</v>
@@ -9937,6 +9116,417 @@
         <v>9</v>
       </c>
       <c r="AS25" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="40">
+        <v>26</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="55">
+        <v>120</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="K26" s="55">
+        <v>29.4</v>
+      </c>
+      <c r="L26" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="O26" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q26" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ26" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR26" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS26" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="40">
+        <v>27</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="S27" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="T27" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="U27" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="V27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS27" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="40">
+        <v>28</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="S28" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="T28" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="U28" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="V28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR28" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS28" s="45" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10013,15 +9603,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/PISO/Ontologia_PISOS.xlsx
+++ b/Versão5/PISO/Ontologia_PISOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\PISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6417E368-8F30-4FD0-887C-75E35A47AB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80500960-EB20-4172-8863-FFA1A3B47919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="276">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -844,6 +844,63 @@
   </si>
   <si>
     <t>"escamas"</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Para.Madeira</t>
+  </si>
+  <si>
+    <t>Para.Metais</t>
+  </si>
+  <si>
+    <t>Para.Texteis</t>
+  </si>
+  <si>
+    <t>Cola para madeira.</t>
+  </si>
+  <si>
+    <t>Cola para metais.</t>
+  </si>
+  <si>
+    <t>Cola para texteis.</t>
+  </si>
+  <si>
+    <t>Cola para espumas.</t>
+  </si>
+  <si>
+    <t>Para.Espumas</t>
+  </si>
+  <si>
+    <t>Cola para louças.</t>
+  </si>
+  <si>
+    <t>Para.Louças</t>
+  </si>
+  <si>
+    <t>Pegamento para madera.</t>
+  </si>
+  <si>
+    <t>Pegamento para textiles.</t>
+  </si>
+  <si>
+    <t>Pegamento para espumas.</t>
+  </si>
+  <si>
+    <t>Pegamento para porcelanas.</t>
+  </si>
+  <si>
+    <t>Pegamento para metales.</t>
+  </si>
+  <si>
+    <t>COL.01</t>
+  </si>
+  <si>
+    <t>"Cola para assentar tacos de madeira."</t>
+  </si>
+  <si>
+    <t>é.colado.com</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,11 +1405,17 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="47" fontId="4" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="81">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1388,6 +1451,116 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2639,7 +2812,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45915.59234722222</v>
+        <v>45915.612474652778</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2689,12 +2862,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2825,7 +2998,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="str">
-        <f t="shared" ref="L2:M30" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M35" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="26" t="str">
@@ -2850,7 +3023,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="27" t="str">
-        <f t="shared" ref="S2:U30" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U35" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="27" t="str">
@@ -2883,10 +3056,10 @@
         <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>9</v>
@@ -2912,18 +3085,18 @@
         <v>Composição</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N33" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" ref="N3:N6" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>Cola</v>
       </c>
       <c r="O3" s="21" t="str">
-        <f t="shared" ref="O3:O33" si="3">F3</f>
-        <v>Assentamento</v>
+        <f t="shared" ref="O3:O6" si="3">F3</f>
+        <v>Para.Madeira</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>227</v>
+        <v>261</v>
+      </c>
+      <c r="Q3" s="39" t="s">
+        <v>268</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
@@ -2938,13 +3111,13 @@
       </c>
       <c r="U3" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V3" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W33" si="4">CONCATENATE("Key-Piso-",A3)</f>
+        <f t="shared" ref="W3:W38" si="4">CONCATENATE("Key-Piso-",A3)</f>
         <v>Key-Piso-3</v>
       </c>
     </row>
@@ -2962,10 +3135,10 @@
         <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>9</v>
@@ -2992,17 +3165,17 @@
       </c>
       <c r="N4" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O4" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Chapisco</v>
+        <v>Para.Metais</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" s="38" t="s">
-        <v>230</v>
+        <v>262</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>272</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
@@ -3017,7 +3190,7 @@
       </c>
       <c r="U4" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>90</v>
@@ -3041,10 +3214,10 @@
         <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>9</v>
@@ -3071,17 +3244,17 @@
       </c>
       <c r="N5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O5" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Emboço</v>
+        <v>Para.Texteis</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>233</v>
+        <v>263</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
@@ -3096,7 +3269,7 @@
       </c>
       <c r="U5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V5" s="27" t="s">
         <v>90</v>
@@ -3120,10 +3293,10 @@
         <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>9</v>
@@ -3150,17 +3323,17 @@
       </c>
       <c r="N6" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O6" s="21" t="str">
         <f t="shared" si="3"/>
-        <v>Reboco</v>
+        <v>Para.Espumas</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>236</v>
+        <v>264</v>
+      </c>
+      <c r="Q6" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -3175,7 +3348,7 @@
       </c>
       <c r="U6" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V6" s="27" t="s">
         <v>90</v>
@@ -3199,10 +3372,10 @@
         <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>9</v>
@@ -3220,41 +3393,41 @@
         <v>9</v>
       </c>
       <c r="L7" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L7" si="5">CONCATENATE("", C7)</f>
         <v>Piso</v>
       </c>
       <c r="M7" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M7" si="6">CONCATENATE("", D7)</f>
         <v>Composição</v>
       </c>
       <c r="N7" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <f t="shared" ref="N7" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
+        <v>Cola</v>
       </c>
       <c r="O7" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Niveladora</v>
+        <f t="shared" ref="O7" si="8">F7</f>
+        <v>Para.Louças</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S7" si="9">SUBSTITUTE(C7, ".", " ")</f>
         <v>Piso</v>
       </c>
       <c r="T7" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T7" si="10">SUBSTITUTE(D7, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <f t="shared" ref="U7" si="11">SUBSTITUTE(E7, ".", " ")</f>
+        <v>Cola</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>90</v>
@@ -3281,7 +3454,7 @@
         <v>97</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>9</v>
@@ -3307,18 +3480,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N8:N38" si="12">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Colante</v>
+        <f t="shared" ref="O8:O38" si="13">F8</f>
+        <v>Assentamento</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="Q8" s="38" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -3359,8 +3532,8 @@
       <c r="E9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>99</v>
+      <c r="F9" s="25" t="s">
+        <v>228</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>9</v>
@@ -3386,18 +3559,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Argamassa</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Graute</v>
-      </c>
-      <c r="P9" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>103</v>
+        <f t="shared" si="13"/>
+        <v>Chapisco</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
@@ -3438,8 +3611,8 @@
       <c r="E10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>100</v>
+      <c r="F10" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>9</v>
@@ -3465,18 +3638,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Argamassa</v>
       </c>
       <c r="O10" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Polimérica</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>104</v>
+        <f t="shared" si="13"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>9</v>
@@ -3517,8 +3690,8 @@
       <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>108</v>
+      <c r="F11" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>9</v>
@@ -3544,18 +3717,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Argamassa</v>
       </c>
       <c r="O11" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Rejunte</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>110</v>
+        <f t="shared" si="13"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>9</v>
@@ -3596,8 +3769,8 @@
       <c r="E12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>218</v>
+      <c r="F12" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>9</v>
@@ -3623,18 +3796,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Baritada</v>
-      </c>
-      <c r="P12" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>220</v>
+        <f t="shared" si="13"/>
+        <v>Niveladora</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q12" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -3673,10 +3846,10 @@
         <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>9</v>
@@ -3702,18 +3875,18 @@
         <v>Composição</v>
       </c>
       <c r="N13" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Resistente</v>
+        <f t="shared" si="12"/>
+        <v>Argamassa</v>
       </c>
       <c r="O13" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Asfaltado</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>165</v>
+        <f t="shared" si="13"/>
+        <v>Colante</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -3728,7 +3901,7 @@
       </c>
       <c r="U13" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V13" s="27" t="s">
         <v>90</v>
@@ -3752,10 +3925,10 @@
         <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>9</v>
@@ -3781,18 +3954,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Resistente</v>
+        <f t="shared" si="12"/>
+        <v>Argamassa</v>
       </c>
       <c r="O14" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Concretado</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q14" s="38" t="s">
-        <v>187</v>
+        <f t="shared" si="13"/>
+        <v>Graute</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -3807,7 +3980,7 @@
       </c>
       <c r="U14" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V14" s="27" t="s">
         <v>90</v>
@@ -3831,10 +4004,10 @@
         <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>9</v>
@@ -3860,18 +4033,18 @@
         <v>Composição</v>
       </c>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Resistente</v>
+        <f t="shared" si="12"/>
+        <v>Argamassa</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Modular.Automotivo</v>
-      </c>
-      <c r="P15" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="38" t="s">
-        <v>188</v>
+        <f t="shared" si="13"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -3886,7 +4059,7 @@
       </c>
       <c r="U15" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V15" s="27" t="s">
         <v>90</v>
@@ -3910,10 +4083,10 @@
         <v>107</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="F16" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>9</v>
@@ -3939,18 +4112,18 @@
         <v>Composição</v>
       </c>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Resistente</v>
+        <f t="shared" si="12"/>
+        <v>Argamassa</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Bloquete.Carro</v>
-      </c>
-      <c r="P16" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q16" s="38" t="s">
-        <v>189</v>
+        <f t="shared" si="13"/>
+        <v>Rejunte</v>
+      </c>
+      <c r="P16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -3965,7 +4138,7 @@
       </c>
       <c r="U16" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V16" s="27" t="s">
         <v>90</v>
@@ -3989,10 +4162,10 @@
         <v>107</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>154</v>
+        <v>97</v>
+      </c>
+      <c r="F17" s="64" t="s">
+        <v>218</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>9</v>
@@ -4018,18 +4191,18 @@
         <v>Composição</v>
       </c>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Acessível</v>
+        <f t="shared" si="12"/>
+        <v>Argamassa</v>
       </c>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Tátil.Alerta</v>
-      </c>
-      <c r="P17" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q17" s="38" t="s">
-        <v>190</v>
+        <f t="shared" si="13"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -4044,7 +4217,7 @@
       </c>
       <c r="U17" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Acessível</v>
+        <v>Argamassa</v>
       </c>
       <c r="V17" s="27" t="s">
         <v>90</v>
@@ -4068,10 +4241,10 @@
         <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>9</v>
@@ -4097,18 +4270,18 @@
         <v>Composição</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Acessível</v>
+        <f t="shared" si="12"/>
+        <v>Resistente</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Tátil.Direcional</v>
+        <f t="shared" si="13"/>
+        <v>Asfaltado</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
@@ -4123,7 +4296,7 @@
       </c>
       <c r="U18" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Acessível</v>
+        <v>Resistente</v>
       </c>
       <c r="V18" s="27" t="s">
         <v>90</v>
@@ -4147,10 +4320,10 @@
         <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>9</v>
@@ -4176,18 +4349,18 @@
         <v>Composição</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Drenante</v>
+        <f t="shared" si="12"/>
+        <v>Resistente</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Intertravado</v>
+        <f t="shared" si="13"/>
+        <v>Concretado</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
@@ -4202,7 +4375,7 @@
       </c>
       <c r="U19" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Resistente</v>
       </c>
       <c r="V19" s="27" t="s">
         <v>90</v>
@@ -4226,10 +4399,10 @@
         <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>9</v>
@@ -4255,18 +4428,18 @@
         <v>Composição</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Drenante</v>
+        <f t="shared" si="12"/>
+        <v>Resistente</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Fulget</v>
+        <f t="shared" si="13"/>
+        <v>Modular.Automotivo</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>9</v>
@@ -4281,7 +4454,7 @@
       </c>
       <c r="U20" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Resistente</v>
       </c>
       <c r="V20" s="27" t="s">
         <v>90</v>
@@ -4305,10 +4478,10 @@
         <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>9</v>
@@ -4334,18 +4507,18 @@
         <v>Composição</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Drenante</v>
+        <f t="shared" si="12"/>
+        <v>Resistente</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Bloquete.Grama</v>
+        <f t="shared" si="13"/>
+        <v>Bloquete.Carro</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q21" s="38" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
@@ -4360,7 +4533,7 @@
       </c>
       <c r="U21" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Resistente</v>
       </c>
       <c r="V21" s="27" t="s">
         <v>90</v>
@@ -4384,10 +4557,10 @@
         <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>9</v>
@@ -4413,18 +4586,18 @@
         <v>Composição</v>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Paginado</v>
+        <f t="shared" si="12"/>
+        <v>Acessível</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Taco</v>
+        <f t="shared" si="13"/>
+        <v>Tátil.Alerta</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
@@ -4439,7 +4612,7 @@
       </c>
       <c r="U22" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Acessível</v>
       </c>
       <c r="V22" s="27" t="s">
         <v>90</v>
@@ -4463,10 +4636,10 @@
         <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>9</v>
@@ -4492,18 +4665,18 @@
         <v>Composição</v>
       </c>
       <c r="N23" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Paginado</v>
+        <f t="shared" si="12"/>
+        <v>Acessível</v>
       </c>
       <c r="O23" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Vinílico</v>
+        <f t="shared" si="13"/>
+        <v>Tátil.Direcional</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>9</v>
@@ -4518,7 +4691,7 @@
       </c>
       <c r="U23" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Acessível</v>
       </c>
       <c r="V23" s="27" t="s">
         <v>90</v>
@@ -4542,10 +4715,10 @@
         <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>9</v>
@@ -4571,18 +4744,18 @@
         <v>Composição</v>
       </c>
       <c r="N24" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Paginado</v>
+        <f t="shared" si="12"/>
+        <v>Drenante</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Peça.Cerâmica</v>
+        <f t="shared" si="13"/>
+        <v>Intertravado</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>9</v>
@@ -4597,7 +4770,7 @@
       </c>
       <c r="U24" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V24" s="27" t="s">
         <v>90</v>
@@ -4621,10 +4794,10 @@
         <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>9</v>
@@ -4650,18 +4823,18 @@
         <v>Composição</v>
       </c>
       <c r="N25" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Paginado</v>
+        <f t="shared" si="12"/>
+        <v>Drenante</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Peça.Porcelanato</v>
+        <f t="shared" si="13"/>
+        <v>Fulget</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>9</v>
@@ -4676,7 +4849,7 @@
       </c>
       <c r="U25" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V25" s="27" t="s">
         <v>90</v>
@@ -4700,10 +4873,10 @@
         <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>9</v>
@@ -4729,18 +4902,18 @@
         <v>Composição</v>
       </c>
       <c r="N26" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Paginado</v>
+        <f t="shared" si="12"/>
+        <v>Drenante</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Pedra.Natural</v>
+        <f t="shared" si="13"/>
+        <v>Bloquete.Grama</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>9</v>
@@ -4755,7 +4928,7 @@
       </c>
       <c r="U26" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V26" s="27" t="s">
         <v>90</v>
@@ -4782,7 +4955,7 @@
         <v>147</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>9</v>
@@ -4808,18 +4981,18 @@
         <v>Composição</v>
       </c>
       <c r="N27" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Paginado</v>
       </c>
       <c r="O27" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Pedra.Sintética</v>
+        <f t="shared" si="13"/>
+        <v>Taco</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="R27" s="27" t="s">
         <v>9</v>
@@ -4861,7 +5034,7 @@
         <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>9</v>
@@ -4887,18 +5060,18 @@
         <v>Composição</v>
       </c>
       <c r="N28" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Paginado</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Elevado</v>
+        <f t="shared" si="13"/>
+        <v>Vinílico</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="R28" s="27" t="s">
         <v>9</v>
@@ -4940,7 +5113,7 @@
         <v>147</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>157</v>
+        <v>243</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>9</v>
@@ -4966,18 +5139,18 @@
         <v>Composição</v>
       </c>
       <c r="N29" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Paginado</v>
       </c>
       <c r="O29" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Bloco.Vídro</v>
+        <f t="shared" si="13"/>
+        <v>Peça.Cerâmica</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="R29" s="27" t="s">
         <v>9</v>
@@ -5016,10 +5189,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>9</v>
@@ -5045,18 +5218,18 @@
         <v>Composição</v>
       </c>
       <c r="N30" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Contínuo</v>
+        <f t="shared" si="12"/>
+        <v>Paginado</v>
       </c>
       <c r="O30" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Carpete</v>
+        <f t="shared" si="13"/>
+        <v>Peça.Porcelanato</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="R30" s="27" t="s">
         <v>9</v>
@@ -5071,7 +5244,7 @@
       </c>
       <c r="U30" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Contínuo</v>
+        <v>Paginado</v>
       </c>
       <c r="V30" s="27" t="s">
         <v>90</v>
@@ -5095,10 +5268,10 @@
         <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>9</v>
@@ -5116,41 +5289,41 @@
         <v>9</v>
       </c>
       <c r="L31" s="26" t="str">
-        <f t="shared" ref="L31:M33" si="5">CONCATENATE("", C31)</f>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M31" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N31" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Contínuo</v>
+        <f t="shared" si="12"/>
+        <v>Paginado</v>
       </c>
       <c r="O31" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Manta</v>
+        <f t="shared" si="13"/>
+        <v>Pedra.Natural</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="R31" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S31" s="27" t="str">
-        <f t="shared" ref="S31:U33" si="6">SUBSTITUTE(C31, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T31" s="27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U31" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V31" s="27" t="s">
         <v>90</v>
@@ -5174,10 +5347,10 @@
         <v>107</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>9</v>
@@ -5195,41 +5368,41 @@
         <v>9</v>
       </c>
       <c r="L32" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M32" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N32" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Contínuo</v>
+        <f t="shared" si="12"/>
+        <v>Paginado</v>
       </c>
       <c r="O32" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Cimentado</v>
+        <f t="shared" si="13"/>
+        <v>Pedra.Sintética</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="R32" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T32" s="27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U32" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V32" s="27" t="s">
         <v>90</v>
@@ -5253,10 +5426,10 @@
         <v>107</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>9</v>
@@ -5274,41 +5447,41 @@
         <v>9</v>
       </c>
       <c r="L33" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M33" s="26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N33" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Contínuo</v>
+        <f t="shared" si="12"/>
+        <v>Paginado</v>
       </c>
       <c r="O33" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Gramado</v>
+        <f t="shared" si="13"/>
+        <v>Elevado</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R33" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T33" s="27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U33" s="27" t="str">
-        <f t="shared" si="6"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V33" s="27" t="s">
         <v>90</v>
@@ -5316,95 +5489,503 @@
       <c r="W33" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Key-Piso-33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Piso</v>
+      </c>
+      <c r="M34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N34" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Paginado</v>
+      </c>
+      <c r="O34" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>Bloco.Vídro</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="R34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Piso</v>
+      </c>
+      <c r="T34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U34" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
+      </c>
+      <c r="V34" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Piso-34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="23">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Piso</v>
+      </c>
+      <c r="M35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N35" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O35" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>Carpete</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="R35" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Piso</v>
+      </c>
+      <c r="T35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U35" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Piso-35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="26" t="str">
+        <f t="shared" ref="L36:M38" si="14">CONCATENATE("", C36)</f>
+        <v>Piso</v>
+      </c>
+      <c r="M36" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Composição</v>
+      </c>
+      <c r="N36" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O36" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>Manta</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S36" s="27" t="str">
+        <f t="shared" ref="S36:U38" si="15">SUBSTITUTE(C36, ".", " ")</f>
+        <v>Piso</v>
+      </c>
+      <c r="T36" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Composição</v>
+      </c>
+      <c r="U36" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V36" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Piso-36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="23">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Piso</v>
+      </c>
+      <c r="M37" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Composição</v>
+      </c>
+      <c r="N37" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O37" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>Cimentado</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="R37" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S37" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Piso</v>
+      </c>
+      <c r="T37" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Composição</v>
+      </c>
+      <c r="U37" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V37" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Piso-37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="23">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Piso</v>
+      </c>
+      <c r="M38" s="26" t="str">
+        <f t="shared" si="14"/>
+        <v>Composição</v>
+      </c>
+      <c r="N38" s="26" t="str">
+        <f t="shared" si="12"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O38" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>Gramado</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="R38" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S38" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Piso</v>
+      </c>
+      <c r="T38" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Composição</v>
+      </c>
+      <c r="U38" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V38" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Key-Piso-38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="69" priority="1291"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1302"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="68" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="67" priority="1251"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1252"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1253"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1254"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1255"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1256"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1267"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1266"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1265"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="1264"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="1263"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="1262"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="duplicateValues" dxfId="61" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="41"/>
+  <conditionalFormatting sqref="F3:F13">
+    <cfRule type="duplicateValues" dxfId="72" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F12">
-    <cfRule type="duplicateValues" dxfId="50" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+  <conditionalFormatting sqref="F14:F17">
+    <cfRule type="duplicateValues" dxfId="61" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F33">
-    <cfRule type="duplicateValues" dxfId="43" priority="2167"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="2168"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="2169"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2170"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="2171"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="2172"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2173"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2174"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="2175"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="2176"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="2177"/>
+  <conditionalFormatting sqref="F35:F38">
+    <cfRule type="duplicateValues" dxfId="54" priority="2188"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2186"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2178"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="2179"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="2180"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="2181"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2182"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2183"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2184"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="2185"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2187"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="32" priority="2178"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="2179"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="2180"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="2181"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2182"/>
+  <conditionalFormatting sqref="F39:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="43" priority="2189"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2190"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2191"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2193"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="2193"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="2194"/>
+  <conditionalFormatting sqref="F39:F1048576">
+    <cfRule type="duplicateValues" dxfId="38" priority="2205"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2204"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P8">
-    <cfRule type="duplicateValues" dxfId="25" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
+  <conditionalFormatting sqref="P3:P13">
+    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q7">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
+  <conditionalFormatting sqref="Q3:Q7">
+    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5637,11 +6218,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS28"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5661,7 +6242,7 @@
     <col min="13" max="13" width="5.61328125" style="58" customWidth="1"/>
     <col min="14" max="14" width="7.61328125" style="58" customWidth="1"/>
     <col min="15" max="15" width="8.69140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.07421875" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.53515625" style="58" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.3046875" style="58" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.3828125" style="58" customWidth="1"/>
     <col min="19" max="19" width="9.921875" style="58" customWidth="1"/>
@@ -5973,16 +6554,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>9</v>
@@ -6110,7 +6691,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>106</v>
@@ -6119,7 +6700,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>9</v>
@@ -6242,21 +6823,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" s="46" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>5</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>130</v>
+      <c r="B5" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D5" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="51" t="s">
-        <v>134</v>
+      <c r="E5" s="49" t="s">
+        <v>212</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>9</v>
@@ -6282,17 +6863,17 @@
       <c r="M5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="52" t="s">
-        <v>111</v>
+      <c r="N5" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O5" s="45" t="s">
         <v>9</v>
       </c>
       <c r="P5" s="43" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="Q5" s="45" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="R5" s="43" t="s">
         <v>9</v>
@@ -6384,7 +6965,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>98</v>
@@ -6393,7 +6974,7 @@
         <v>91</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>9</v>
@@ -6521,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>98</v>
@@ -6530,7 +7111,7 @@
         <v>91</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>9</v>
@@ -6658,7 +7239,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="48" t="s">
         <v>98</v>
@@ -6667,7 +7248,7 @@
         <v>91</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>9</v>
@@ -6795,16 +7376,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>9</v>
@@ -6834,13 +7415,13 @@
         <v>111</v>
       </c>
       <c r="O9" s="45" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="P9" s="43" t="s">
         <v>93</v>
       </c>
       <c r="Q9" s="45" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="R9" s="43" t="s">
         <v>9</v>
@@ -6932,52 +7513,52 @@
         <v>10</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>142</v>
+        <v>221</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="45">
-        <v>1.1000000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="55">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="K10" s="55">
-        <v>21</v>
-      </c>
-      <c r="L10" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="50" t="s">
-        <v>130</v>
+        <v>9</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="N10" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="O10" s="57" t="s">
-        <v>253</v>
+      <c r="O10" s="45" t="s">
+        <v>224</v>
       </c>
       <c r="P10" s="43" t="s">
         <v>93</v>
       </c>
       <c r="Q10" s="45" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="R10" s="43" t="s">
         <v>9</v>
@@ -7069,16 +7650,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>94</v>
@@ -7090,13 +7671,13 @@
         <v>95</v>
       </c>
       <c r="I11" s="55">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K11" s="55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="56" t="s">
         <v>139</v>
@@ -7108,13 +7689,13 @@
         <v>111</v>
       </c>
       <c r="O11" s="57" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="P11" s="43" t="s">
         <v>93</v>
       </c>
       <c r="Q11" s="45" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="R11" s="43" t="s">
         <v>9</v>
@@ -7206,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="54" t="s">
         <v>243</v>
@@ -7227,25 +7808,25 @@
         <v>95</v>
       </c>
       <c r="I12" s="55">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K12" s="55">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="L12" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N12" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O12" s="57" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P12" s="43" t="s">
         <v>93</v>
@@ -7343,7 +7924,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>243</v>
@@ -7364,25 +7945,25 @@
         <v>95</v>
       </c>
       <c r="I13" s="55">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="55">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L13" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N13" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O13" s="57" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P13" s="43" t="s">
         <v>93</v>
@@ -7480,7 +8061,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>243</v>
@@ -7501,19 +8082,19 @@
         <v>95</v>
       </c>
       <c r="I14" s="55">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="55">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L14" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M14" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N14" s="52" t="s">
         <v>111</v>
@@ -7617,7 +8198,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C15" s="54" t="s">
         <v>243</v>
@@ -7644,13 +8225,13 @@
         <v>96</v>
       </c>
       <c r="K15" s="55">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="L15" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M15" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N15" s="52" t="s">
         <v>111</v>
@@ -7754,7 +8335,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C16" s="54" t="s">
         <v>243</v>
@@ -7781,7 +8362,7 @@
         <v>96</v>
       </c>
       <c r="K16" s="55">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="L16" s="56" t="s">
         <v>139</v>
@@ -7891,7 +8472,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>243</v>
@@ -7918,19 +8499,19 @@
         <v>96</v>
       </c>
       <c r="K17" s="55">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L17" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M17" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N17" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O17" s="57" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="P17" s="43" t="s">
         <v>93</v>
@@ -8028,7 +8609,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>243</v>
@@ -8049,25 +8630,25 @@
         <v>95</v>
       </c>
       <c r="I18" s="55">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K18" s="55">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="L18" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N18" s="52" t="s">
         <v>111</v>
       </c>
       <c r="O18" s="57" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>93</v>
@@ -8165,7 +8746,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="54" t="s">
         <v>243</v>
@@ -8186,13 +8767,13 @@
         <v>95</v>
       </c>
       <c r="I19" s="55">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K19" s="55">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="L19" s="56" t="s">
         <v>139</v>
@@ -8302,7 +8883,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>243</v>
@@ -8329,13 +8910,13 @@
         <v>96</v>
       </c>
       <c r="K20" s="55">
-        <v>29.8</v>
+        <v>80</v>
       </c>
       <c r="L20" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M20" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N20" s="52" t="s">
         <v>111</v>
@@ -8439,7 +9020,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>243</v>
@@ -8466,7 +9047,7 @@
         <v>96</v>
       </c>
       <c r="K21" s="55">
-        <v>14.5</v>
+        <v>29.8</v>
       </c>
       <c r="L21" s="56" t="s">
         <v>139</v>
@@ -8576,7 +9157,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>243</v>
@@ -8603,7 +9184,7 @@
         <v>96</v>
       </c>
       <c r="K22" s="55">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="L22" s="56" t="s">
         <v>139</v>
@@ -8713,7 +9294,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>243</v>
@@ -8734,19 +9315,19 @@
         <v>95</v>
       </c>
       <c r="I23" s="55">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K23" s="55">
-        <v>90</v>
+        <v>9.5</v>
       </c>
       <c r="L23" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M23" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N23" s="52" t="s">
         <v>111</v>
@@ -8850,7 +9431,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C24" s="54" t="s">
         <v>243</v>
@@ -8877,13 +9458,13 @@
         <v>96</v>
       </c>
       <c r="K24" s="55">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="L24" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M24" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N24" s="52" t="s">
         <v>111</v>
@@ -8987,7 +9568,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>243</v>
@@ -9008,19 +9589,19 @@
         <v>95</v>
       </c>
       <c r="I25" s="55">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>96</v>
       </c>
       <c r="K25" s="55">
-        <v>60</v>
+        <v>14.5</v>
       </c>
       <c r="L25" s="56" t="s">
         <v>139</v>
       </c>
       <c r="M25" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N25" s="52" t="s">
         <v>111</v>
@@ -9124,7 +9705,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C26" s="54" t="s">
         <v>243</v>
@@ -9151,7 +9732,7 @@
         <v>96</v>
       </c>
       <c r="K26" s="55">
-        <v>29.4</v>
+        <v>60</v>
       </c>
       <c r="L26" s="56" t="s">
         <v>139</v>
@@ -9261,64 +9842,64 @@
         <v>27</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="D27" s="43" t="s">
         <v>91</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>9</v>
+        <v>94</v>
+      </c>
+      <c r="G27" s="45">
+        <v>1.1000000000000001</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="45" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="I27" s="55">
+        <v>120</v>
       </c>
       <c r="J27" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>9</v>
+        <v>96</v>
+      </c>
+      <c r="K27" s="55">
+        <v>29.4</v>
       </c>
       <c r="L27" s="56" t="s">
-        <v>244</v>
+        <v>139</v>
       </c>
       <c r="M27" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="N27" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="45" t="s">
-        <v>9</v>
+        <v>131</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>129</v>
       </c>
       <c r="P27" s="43" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="R27" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="S27" s="67" t="s">
-        <v>246</v>
-      </c>
-      <c r="T27" s="66" t="s">
-        <v>241</v>
-      </c>
-      <c r="U27" s="67" t="s">
-        <v>245</v>
+        <v>128</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U27" s="45" t="s">
+        <v>9</v>
       </c>
       <c r="V27" s="43" t="s">
         <v>9</v>
@@ -9398,7 +9979,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C28" s="54" t="s">
         <v>147</v>
@@ -9407,7 +9988,7 @@
         <v>91</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>9</v>
@@ -9431,13 +10012,13 @@
         <v>244</v>
       </c>
       <c r="M28" s="50" t="s">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="N28" s="43" t="s">
-        <v>255</v>
+        <v>9</v>
       </c>
       <c r="O28" s="45" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="P28" s="43" t="s">
         <v>9</v>
@@ -9527,6 +10108,143 @@
         <v>9</v>
       </c>
       <c r="AS28" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="40">
+        <v>29</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="N29" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q29" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="S29" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="T29" s="66" t="s">
+        <v>241</v>
+      </c>
+      <c r="U29" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="V29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ29" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR29" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS29" s="45" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Versão5/PISO/Ontologia_PISOS.xlsx
+++ b/Versão5/PISO/Ontologia_PISOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\PISO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80500960-EB20-4172-8863-FFA1A3B47919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0BF9AF-82AE-43EB-BB66-D34C9FDC8626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="300">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -885,12 +885,6 @@
     <t>Pegamento para textiles.</t>
   </si>
   <si>
-    <t>Pegamento para espumas.</t>
-  </si>
-  <si>
-    <t>Pegamento para porcelanas.</t>
-  </si>
-  <si>
     <t>Pegamento para metales.</t>
   </si>
   <si>
@@ -901,6 +895,84 @@
   </si>
   <si>
     <t>é.colado.com</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>OST_FloorsFinish1 , OST_FloorsFinish2</t>
+  </si>
+  <si>
+    <t>IfcCovering</t>
+  </si>
+  <si>
+    <t>Projeto.Básico</t>
+  </si>
+  <si>
+    <t>Piso definido em etapas iniciais do projeto em Nivel de detalhamento 200.</t>
+  </si>
+  <si>
+    <t>Piso definido em etapas iniciais do projeto em Nivel de detalhamento 300.</t>
+  </si>
+  <si>
+    <t>OST_Floors</t>
+  </si>
+  <si>
+    <t>IfcSlab</t>
+  </si>
+  <si>
+    <t>Núcleo</t>
+  </si>
+  <si>
+    <t>Laje de concreto estruturante do piso.</t>
+  </si>
+  <si>
+    <t>OST_FloorsStructure</t>
+  </si>
+  <si>
+    <t>OST_FloorsSubstrate</t>
+  </si>
+  <si>
+    <t>OST_FloorsInsulation</t>
+  </si>
+  <si>
+    <t>Piso definido em etapas iniciais do projeto em Nivel de detalhamento 100.</t>
+  </si>
+  <si>
+    <t>Losa de hormigón estructurando el piso.</t>
+  </si>
+  <si>
+    <t>Pegamento de espuma.</t>
+  </si>
+  <si>
+    <t>Pegamento para platos.</t>
+  </si>
+  <si>
+    <t>LoD.Piso</t>
+  </si>
+  <si>
+    <t>Piso.100</t>
+  </si>
+  <si>
+    <t>Piso.200</t>
+  </si>
+  <si>
+    <t>Piso.300</t>
+  </si>
+  <si>
+    <t>Núcleo.Piso</t>
+  </si>
+  <si>
+    <t>Piso definido en las primeras etapas del proyecto en el Nivel de Detalle 100.</t>
+  </si>
+  <si>
+    <t>Piso definido en fases tempranas del proyecto en el Nivel de Detalle 200.</t>
+  </si>
+  <si>
+    <t>Piso definido en las primeras fases del proyecto en el Nivel de Detalle 300.</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1062,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,8 +1189,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1202,11 +1280,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1411,11 +1500,31 @@
     <xf numFmtId="47" fontId="4" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1451,6 +1560,16 @@
         <strike val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2812,7 +2931,7 @@
       </c>
       <c r="B18" s="37">
         <f ca="1">NOW()</f>
-        <v>45915.612474652778</v>
+        <v>45922.596830902781</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.5500000000000007" customHeight="1" x14ac:dyDescent="0.4">
@@ -2862,25 +2981,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD7"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="6" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.3828125" customWidth="1"/>
-    <col min="2" max="3" width="3.69140625" customWidth="1"/>
-    <col min="4" max="4" width="5.921875" customWidth="1"/>
+    <col min="2" max="2" width="3.69140625" customWidth="1"/>
+    <col min="3" max="3" width="6.23046875" customWidth="1"/>
+    <col min="4" max="4" width="6.921875" customWidth="1"/>
     <col min="5" max="5" width="5.53515625" customWidth="1"/>
     <col min="6" max="6" width="8.84375" customWidth="1"/>
     <col min="7" max="11" width="4.765625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.69140625" customWidth="1"/>
+    <col min="12" max="12" width="5.84375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.23046875" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="14" max="14" width="5.69140625" customWidth="1"/>
     <col min="15" max="15" width="6.3828125" customWidth="1"/>
     <col min="16" max="16" width="51.07421875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="50.3828125" bestFit="1" customWidth="1"/>
@@ -2890,9 +3010,10 @@
     <col min="21" max="21" width="5.84375" style="35" customWidth="1"/>
     <col min="22" max="22" width="5.921875" style="35" customWidth="1"/>
     <col min="23" max="23" width="6.84375" style="28" customWidth="1"/>
+    <col min="24" max="24" width="17.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="34" customFormat="1" ht="29.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="34" customFormat="1" ht="29.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="30">
         <v>1</v>
       </c>
@@ -2962,8 +3083,14 @@
       <c r="W1" s="30" t="s">
         <v>8</v>
       </c>
+      <c r="X1" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="70" t="s">
+        <v>275</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="23">
         <v>2</v>
       </c>
@@ -2998,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="str">
-        <f t="shared" ref="L2:M35" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M39" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="26" t="str">
@@ -3023,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="27" t="str">
-        <f t="shared" ref="S2:U35" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U39" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="27" t="str">
@@ -3038,28 +3165,34 @@
         <v>85</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>CONCATENATE("Key-Piso-",A2)</f>
-        <v>Key-Piso-2</v>
+        <f t="shared" ref="W2:W42" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <v>Key.Ges.2</v>
+      </c>
+      <c r="X2" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="71" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>141</v>
+      <c r="C3" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>9</v>
@@ -3077,68 +3210,74 @@
         <v>9</v>
       </c>
       <c r="L3" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Piso</v>
+        <f t="shared" ref="L3" si="3">CONCATENATE("", C3)</f>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M3" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Composição</v>
+        <f t="shared" ref="M3" si="4">CONCATENATE("", D3)</f>
+        <v>Pisos</v>
       </c>
       <c r="N3" s="26" t="str">
-        <f t="shared" ref="N3:N6" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Cola</v>
+        <f t="shared" ref="N3" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>LoD Piso</v>
       </c>
       <c r="O3" s="21" t="str">
-        <f t="shared" ref="O3:O6" si="3">F3</f>
-        <v>Para.Madeira</v>
+        <f t="shared" ref="O3" si="6">F3</f>
+        <v>Piso.100</v>
       </c>
       <c r="P3" s="39" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="Q3" s="39" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Piso</v>
+        <f t="shared" ref="S3" si="7">SUBSTITUTE(C3, ".", " ")</f>
+        <v>Projeto Básico</v>
       </c>
       <c r="T3" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Composição</v>
+        <f t="shared" ref="T3" si="8">SUBSTITUTE(D3, ".", " ")</f>
+        <v>Pisos</v>
       </c>
       <c r="U3" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Cola</v>
+        <f t="shared" ref="U3" si="9">SUBSTITUTE(E3, ".", " ")</f>
+        <v>LoD Piso</v>
       </c>
       <c r="V3" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W38" si="4">CONCATENATE("Key-Piso-",A3)</f>
-        <v>Key-Piso-3</v>
+        <f t="shared" ref="W3" si="10">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <v>Key.Pro.3</v>
+      </c>
+      <c r="X3" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y3" s="71" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="23">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>141</v>
+      <c r="C4" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>9</v>
@@ -3157,67 +3296,73 @@
       </c>
       <c r="L4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Piso</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M4" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Pisos</v>
       </c>
       <c r="N4" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" ref="N4:N6" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E4),"."," ")," De "," de "))</f>
+        <v>LoD Piso</v>
       </c>
       <c r="O4" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Metais</v>
+        <f t="shared" ref="O4:O6" si="12">F4</f>
+        <v>Piso.200</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Piso</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T4" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Pisos</v>
       </c>
       <c r="U4" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Piso</v>
       </c>
       <c r="V4" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-4</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.4</v>
+      </c>
+      <c r="X4" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y4" s="71" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>141</v>
+      <c r="C5" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>9</v>
@@ -3236,50 +3381,56 @@
       </c>
       <c r="L5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Piso</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M5" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Pisos</v>
       </c>
       <c r="N5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>LoD Piso</v>
       </c>
       <c r="O5" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Texteis</v>
+        <f t="shared" si="12"/>
+        <v>Piso.300</v>
       </c>
       <c r="P5" s="39" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Piso</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Pisos</v>
       </c>
       <c r="U5" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Piso</v>
       </c>
       <c r="V5" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-5</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.5</v>
+      </c>
+      <c r="X5" s="71" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y5" s="71" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23">
         <v>6</v>
       </c>
@@ -3293,10 +3444,10 @@
         <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>9</v>
@@ -3322,18 +3473,18 @@
         <v>Composição</v>
       </c>
       <c r="N6" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>Núcleo</v>
       </c>
       <c r="O6" s="21" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Espumas</v>
+        <f t="shared" si="12"/>
+        <v>Núcleo.Piso</v>
       </c>
       <c r="P6" s="39" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>9</v>
@@ -3348,17 +3499,23 @@
       </c>
       <c r="U6" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>Núcleo</v>
       </c>
       <c r="V6" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-6</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.6</v>
+      </c>
+      <c r="X6" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y6" s="71" t="s">
+        <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23">
         <v>7</v>
       </c>
@@ -3375,7 +3532,7 @@
         <v>257</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>9</v>
@@ -3393,51 +3550,57 @@
         <v>9</v>
       </c>
       <c r="L7" s="26" t="str">
-        <f t="shared" ref="L7" si="5">CONCATENATE("", C7)</f>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M7" s="26" t="str">
-        <f t="shared" ref="M7" si="6">CONCATENATE("", D7)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N7" s="26" t="str">
-        <f t="shared" ref="N7" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N7:N10" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
         <v>Cola</v>
       </c>
       <c r="O7" s="21" t="str">
-        <f t="shared" ref="O7" si="8">F7</f>
-        <v>Para.Louças</v>
+        <f t="shared" ref="O7:O10" si="14">F7</f>
+        <v>Para.Madeira</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="R7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="27" t="str">
-        <f t="shared" ref="S7" si="9">SUBSTITUTE(C7, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T7" s="27" t="str">
-        <f t="shared" ref="T7" si="10">SUBSTITUTE(D7, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U7" s="27" t="str">
-        <f t="shared" ref="U7" si="11">SUBSTITUTE(E7, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Cola</v>
       </c>
       <c r="V7" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-7</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.7</v>
+      </c>
+      <c r="X7" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y7" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23">
         <v>8</v>
       </c>
@@ -3451,10 +3614,10 @@
         <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>9</v>
@@ -3480,18 +3643,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="26" t="str">
-        <f t="shared" ref="N8:N38" si="12">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O8" s="21" t="str">
-        <f t="shared" ref="O8:O38" si="13">F8</f>
-        <v>Assentamento</v>
+        <f t="shared" si="14"/>
+        <v>Para.Metais</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>227</v>
+        <v>262</v>
+      </c>
+      <c r="Q8" s="39" t="s">
+        <v>270</v>
       </c>
       <c r="R8" s="27" t="s">
         <v>9</v>
@@ -3506,17 +3669,23 @@
       </c>
       <c r="U8" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V8" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-8</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.8</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y8" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23">
         <v>9</v>
       </c>
@@ -3530,10 +3699,10 @@
         <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>9</v>
@@ -3559,18 +3728,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O9" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Chapisco</v>
+        <f t="shared" si="14"/>
+        <v>Para.Texteis</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q9" s="38" t="s">
-        <v>230</v>
+        <v>263</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>269</v>
       </c>
       <c r="R9" s="27" t="s">
         <v>9</v>
@@ -3585,17 +3754,23 @@
       </c>
       <c r="U9" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V9" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-9</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.9</v>
+      </c>
+      <c r="X9" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y9" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="23">
         <v>10</v>
       </c>
@@ -3609,10 +3784,10 @@
         <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>9</v>
@@ -3638,18 +3813,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Argamassa</v>
+        <f t="shared" si="13"/>
+        <v>Cola</v>
       </c>
       <c r="O10" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Emboço</v>
+        <f t="shared" si="14"/>
+        <v>Para.Espumas</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>233</v>
+        <v>264</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>290</v>
       </c>
       <c r="R10" s="27" t="s">
         <v>9</v>
@@ -3664,17 +3839,23 @@
       </c>
       <c r="U10" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V10" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-10</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.10</v>
+      </c>
+      <c r="X10" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y10" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23">
         <v>11</v>
       </c>
@@ -3688,10 +3869,10 @@
         <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>9</v>
@@ -3709,51 +3890,57 @@
         <v>9</v>
       </c>
       <c r="L11" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L11" si="15">CONCATENATE("", C11)</f>
         <v>Piso</v>
       </c>
       <c r="M11" s="26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M11" si="16">CONCATENATE("", D11)</f>
         <v>Composição</v>
       </c>
       <c r="N11" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Argamassa</v>
+        <f t="shared" ref="N11" si="17">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E11),"."," ")," De "," de "))</f>
+        <v>Cola</v>
       </c>
       <c r="O11" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Reboco</v>
+        <f t="shared" ref="O11" si="18">F11</f>
+        <v>Para.Louças</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q11" s="38" t="s">
-        <v>236</v>
+        <v>266</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>291</v>
       </c>
       <c r="R11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S11" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S11" si="19">SUBSTITUTE(C11, ".", " ")</f>
         <v>Piso</v>
       </c>
       <c r="T11" s="27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T11" si="20">SUBSTITUTE(D11, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <f t="shared" ref="U11" si="21">SUBSTITUTE(E11, ".", " ")</f>
+        <v>Cola</v>
       </c>
       <c r="V11" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-11</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.11</v>
+      </c>
+      <c r="X11" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y11" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23">
         <v>12</v>
       </c>
@@ -3770,7 +3957,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>9</v>
@@ -3796,18 +3983,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="N12:N42" si="22">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E12),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Niveladora</v>
+        <f t="shared" ref="O12:O42" si="23">F12</f>
+        <v>Assentamento</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q12" s="39" t="s">
-        <v>238</v>
+        <v>226</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>227</v>
       </c>
       <c r="R12" s="27" t="s">
         <v>9</v>
@@ -3828,11 +4015,17 @@
         <v>90</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-12</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.12</v>
+      </c>
+      <c r="X12" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y12" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="23">
         <v>13</v>
       </c>
@@ -3849,7 +4042,7 @@
         <v>97</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>9</v>
@@ -3875,18 +4068,18 @@
         <v>Composição</v>
       </c>
       <c r="N13" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Argamassa</v>
       </c>
       <c r="O13" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Colante</v>
+        <f t="shared" si="23"/>
+        <v>Chapisco</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="R13" s="27" t="s">
         <v>9</v>
@@ -3907,11 +4100,17 @@
         <v>90</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-13</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.13</v>
+      </c>
+      <c r="X13" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y13" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23">
         <v>14</v>
       </c>
@@ -3927,8 +4126,8 @@
       <c r="E14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>99</v>
+      <c r="F14" s="25" t="s">
+        <v>231</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>9</v>
@@ -3954,18 +4153,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Argamassa</v>
       </c>
       <c r="O14" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Graute</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>103</v>
+        <f t="shared" si="23"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="R14" s="27" t="s">
         <v>9</v>
@@ -3986,11 +4185,17 @@
         <v>90</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-14</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.14</v>
+      </c>
+      <c r="X14" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y14" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="23">
         <v>15</v>
       </c>
@@ -4006,8 +4211,8 @@
       <c r="E15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="64" t="s">
-        <v>100</v>
+      <c r="F15" s="25" t="s">
+        <v>234</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>9</v>
@@ -4033,18 +4238,18 @@
         <v>Composição</v>
       </c>
       <c r="N15" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Argamassa</v>
       </c>
       <c r="O15" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Polimérica</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>104</v>
+        <f t="shared" si="23"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="R15" s="27" t="s">
         <v>9</v>
@@ -4065,11 +4270,17 @@
         <v>90</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-15</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.15</v>
+      </c>
+      <c r="X15" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y15" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="23">
         <v>16</v>
       </c>
@@ -4085,8 +4296,8 @@
       <c r="E16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="64" t="s">
-        <v>108</v>
+      <c r="F16" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>9</v>
@@ -4112,18 +4323,18 @@
         <v>Composição</v>
       </c>
       <c r="N16" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Argamassa</v>
       </c>
       <c r="O16" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Rejunte</v>
-      </c>
-      <c r="P16" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>110</v>
+        <f t="shared" si="23"/>
+        <v>Niveladora</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="39" t="s">
+        <v>238</v>
       </c>
       <c r="R16" s="27" t="s">
         <v>9</v>
@@ -4144,11 +4355,17 @@
         <v>90</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-16</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.16</v>
+      </c>
+      <c r="X16" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y16" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="23">
         <v>17</v>
       </c>
@@ -4164,8 +4381,8 @@
       <c r="E17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="64" t="s">
-        <v>218</v>
+      <c r="F17" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>9</v>
@@ -4191,18 +4408,18 @@
         <v>Composição</v>
       </c>
       <c r="N17" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Argamassa</v>
       </c>
       <c r="O17" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Baritada</v>
-      </c>
-      <c r="P17" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>220</v>
+        <f t="shared" si="23"/>
+        <v>Colante</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>239</v>
       </c>
       <c r="R17" s="27" t="s">
         <v>9</v>
@@ -4223,11 +4440,17 @@
         <v>90</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-17</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.17</v>
+      </c>
+      <c r="X17" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y17" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="23">
         <v>18</v>
       </c>
@@ -4241,10 +4464,10 @@
         <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
+      </c>
+      <c r="F18" s="64" t="s">
+        <v>99</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>9</v>
@@ -4270,18 +4493,18 @@
         <v>Composição</v>
       </c>
       <c r="N18" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Resistente</v>
+        <f t="shared" si="22"/>
+        <v>Argamassa</v>
       </c>
       <c r="O18" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Asfaltado</v>
-      </c>
-      <c r="P18" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q18" s="38" t="s">
-        <v>186</v>
+        <f t="shared" si="23"/>
+        <v>Graute</v>
+      </c>
+      <c r="P18" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="R18" s="27" t="s">
         <v>9</v>
@@ -4296,17 +4519,23 @@
       </c>
       <c r="U18" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V18" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-18</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.18</v>
+      </c>
+      <c r="X18" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y18" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="23">
         <v>19</v>
       </c>
@@ -4320,10 +4549,10 @@
         <v>107</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>100</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>9</v>
@@ -4349,18 +4578,18 @@
         <v>Composição</v>
       </c>
       <c r="N19" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Resistente</v>
+        <f t="shared" si="22"/>
+        <v>Argamassa</v>
       </c>
       <c r="O19" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Concretado</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q19" s="38" t="s">
-        <v>187</v>
+        <f t="shared" si="23"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="R19" s="27" t="s">
         <v>9</v>
@@ -4375,17 +4604,23 @@
       </c>
       <c r="U19" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V19" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-19</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.19</v>
+      </c>
+      <c r="X19" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y19" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23">
         <v>20</v>
       </c>
@@ -4399,10 +4634,10 @@
         <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>108</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>9</v>
@@ -4428,18 +4663,18 @@
         <v>Composição</v>
       </c>
       <c r="N20" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Resistente</v>
+        <f t="shared" si="22"/>
+        <v>Argamassa</v>
       </c>
       <c r="O20" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Modular.Automotivo</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q20" s="38" t="s">
-        <v>188</v>
+        <f t="shared" si="23"/>
+        <v>Rejunte</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="R20" s="27" t="s">
         <v>9</v>
@@ -4454,17 +4689,23 @@
       </c>
       <c r="U20" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V20" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-20</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.20</v>
+      </c>
+      <c r="X20" s="71" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y20" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="23">
         <v>21</v>
       </c>
@@ -4478,10 +4719,10 @@
         <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="F21" s="64" t="s">
+        <v>218</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>9</v>
@@ -4507,18 +4748,18 @@
         <v>Composição</v>
       </c>
       <c r="N21" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Resistente</v>
+        <f t="shared" si="22"/>
+        <v>Argamassa</v>
       </c>
       <c r="O21" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Bloquete.Carro</v>
-      </c>
-      <c r="P21" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q21" s="38" t="s">
-        <v>189</v>
+        <f t="shared" si="23"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>220</v>
       </c>
       <c r="R21" s="27" t="s">
         <v>9</v>
@@ -4533,17 +4774,23 @@
       </c>
       <c r="U21" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Resistente</v>
+        <v>Argamassa</v>
       </c>
       <c r="V21" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-21</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.21</v>
+      </c>
+      <c r="X21" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y21" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="23">
         <v>22</v>
       </c>
@@ -4557,10 +4804,10 @@
         <v>107</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>9</v>
@@ -4586,18 +4833,18 @@
         <v>Composição</v>
       </c>
       <c r="N22" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Acessível</v>
+        <f t="shared" si="22"/>
+        <v>Resistente</v>
       </c>
       <c r="O22" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Tátil.Alerta</v>
+        <f t="shared" si="23"/>
+        <v>Asfaltado</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q22" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="R22" s="27" t="s">
         <v>9</v>
@@ -4612,17 +4859,23 @@
       </c>
       <c r="U22" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Acessível</v>
+        <v>Resistente</v>
       </c>
       <c r="V22" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-22</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.22</v>
+      </c>
+      <c r="X22" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y22" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="23">
         <v>23</v>
       </c>
@@ -4636,10 +4889,10 @@
         <v>107</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>9</v>
@@ -4665,18 +4918,18 @@
         <v>Composição</v>
       </c>
       <c r="N23" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Acessível</v>
+        <f t="shared" si="22"/>
+        <v>Resistente</v>
       </c>
       <c r="O23" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Tátil.Direcional</v>
+        <f t="shared" si="23"/>
+        <v>Concretado</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="R23" s="27" t="s">
         <v>9</v>
@@ -4691,17 +4944,23 @@
       </c>
       <c r="U23" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Acessível</v>
+        <v>Resistente</v>
       </c>
       <c r="V23" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-23</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.23</v>
+      </c>
+      <c r="X23" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y23" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="23">
         <v>24</v>
       </c>
@@ -4715,10 +4974,10 @@
         <v>107</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>9</v>
@@ -4744,18 +5003,18 @@
         <v>Composição</v>
       </c>
       <c r="N24" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Drenante</v>
+        <f t="shared" si="22"/>
+        <v>Resistente</v>
       </c>
       <c r="O24" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Intertravado</v>
+        <f t="shared" si="23"/>
+        <v>Modular.Automotivo</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="R24" s="27" t="s">
         <v>9</v>
@@ -4770,17 +5029,23 @@
       </c>
       <c r="U24" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Resistente</v>
       </c>
       <c r="V24" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-24</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.24</v>
+      </c>
+      <c r="X24" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y24" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23">
         <v>25</v>
       </c>
@@ -4794,10 +5059,10 @@
         <v>107</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>9</v>
@@ -4823,18 +5088,18 @@
         <v>Composição</v>
       </c>
       <c r="N25" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Drenante</v>
+        <f t="shared" si="22"/>
+        <v>Resistente</v>
       </c>
       <c r="O25" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Fulget</v>
+        <f t="shared" si="23"/>
+        <v>Bloquete.Carro</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R25" s="27" t="s">
         <v>9</v>
@@ -4849,17 +5114,23 @@
       </c>
       <c r="U25" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Resistente</v>
       </c>
       <c r="V25" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-25</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.25</v>
+      </c>
+      <c r="X25" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y25" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="23">
         <v>26</v>
       </c>
@@ -4873,10 +5144,10 @@
         <v>107</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>9</v>
@@ -4902,18 +5173,18 @@
         <v>Composição</v>
       </c>
       <c r="N26" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Drenante</v>
+        <f t="shared" si="22"/>
+        <v>Acessível</v>
       </c>
       <c r="O26" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Bloquete.Grama</v>
+        <f t="shared" si="23"/>
+        <v>Tátil.Alerta</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="R26" s="27" t="s">
         <v>9</v>
@@ -4928,17 +5199,23 @@
       </c>
       <c r="U26" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Drenante</v>
+        <v>Acessível</v>
       </c>
       <c r="V26" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-26</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.26</v>
+      </c>
+      <c r="X26" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y26" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="23">
         <v>27</v>
       </c>
@@ -4952,10 +5229,10 @@
         <v>107</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G27" s="29" t="s">
         <v>9</v>
@@ -4981,18 +5258,18 @@
         <v>Composição</v>
       </c>
       <c r="N27" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Paginado</v>
+        <f t="shared" si="22"/>
+        <v>Acessível</v>
       </c>
       <c r="O27" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Taco</v>
+        <f t="shared" si="23"/>
+        <v>Tátil.Direcional</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="38" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="R27" s="27" t="s">
         <v>9</v>
@@ -5007,17 +5284,23 @@
       </c>
       <c r="U27" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Acessível</v>
       </c>
       <c r="V27" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-27</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.27</v>
+      </c>
+      <c r="X27" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y27" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="23">
         <v>28</v>
       </c>
@@ -5031,10 +5314,10 @@
         <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>9</v>
@@ -5060,18 +5343,18 @@
         <v>Composição</v>
       </c>
       <c r="N28" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Paginado</v>
+        <f t="shared" si="22"/>
+        <v>Drenante</v>
       </c>
       <c r="O28" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Vinílico</v>
+        <f t="shared" si="23"/>
+        <v>Intertravado</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="R28" s="27" t="s">
         <v>9</v>
@@ -5086,17 +5369,23 @@
       </c>
       <c r="U28" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V28" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-28</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.28</v>
+      </c>
+      <c r="X28" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y28" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="23">
         <v>29</v>
       </c>
@@ -5110,10 +5399,10 @@
         <v>107</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>9</v>
@@ -5139,18 +5428,18 @@
         <v>Composição</v>
       </c>
       <c r="N29" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Paginado</v>
+        <f t="shared" si="22"/>
+        <v>Drenante</v>
       </c>
       <c r="O29" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Peça.Cerâmica</v>
+        <f t="shared" si="23"/>
+        <v>Fulget</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R29" s="27" t="s">
         <v>9</v>
@@ -5165,17 +5454,23 @@
       </c>
       <c r="U29" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V29" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-29</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.29</v>
+      </c>
+      <c r="X29" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y29" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="23">
         <v>30</v>
       </c>
@@ -5189,10 +5484,10 @@
         <v>107</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>9</v>
@@ -5218,18 +5513,18 @@
         <v>Composição</v>
       </c>
       <c r="N30" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Paginado</v>
+        <f t="shared" si="22"/>
+        <v>Drenante</v>
       </c>
       <c r="O30" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Peça.Porcelanato</v>
+        <f t="shared" si="23"/>
+        <v>Bloquete.Grama</v>
       </c>
       <c r="P30" s="21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R30" s="27" t="s">
         <v>9</v>
@@ -5244,17 +5539,23 @@
       </c>
       <c r="U30" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Paginado</v>
+        <v>Drenante</v>
       </c>
       <c r="V30" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-30</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.30</v>
+      </c>
+      <c r="X30" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y30" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="23">
         <v>31</v>
       </c>
@@ -5271,7 +5572,7 @@
         <v>147</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>9</v>
@@ -5297,18 +5598,18 @@
         <v>Composição</v>
       </c>
       <c r="N31" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Paginado</v>
       </c>
       <c r="O31" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Pedra.Natural</v>
+        <f t="shared" si="23"/>
+        <v>Taco</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R31" s="27" t="s">
         <v>9</v>
@@ -5329,11 +5630,17 @@
         <v>90</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-31</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.31</v>
+      </c>
+      <c r="X31" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y31" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="23">
         <v>32</v>
       </c>
@@ -5350,7 +5657,7 @@
         <v>147</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>9</v>
@@ -5376,18 +5683,18 @@
         <v>Composição</v>
       </c>
       <c r="N32" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Paginado</v>
       </c>
       <c r="O32" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Pedra.Sintética</v>
+        <f t="shared" si="23"/>
+        <v>Vinílico</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R32" s="27" t="s">
         <v>9</v>
@@ -5408,11 +5715,17 @@
         <v>90</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-32</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.32</v>
+      </c>
+      <c r="X32" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y32" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="23">
         <v>33</v>
       </c>
@@ -5429,7 +5742,7 @@
         <v>147</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>9</v>
@@ -5455,18 +5768,18 @@
         <v>Composição</v>
       </c>
       <c r="N33" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Paginado</v>
       </c>
       <c r="O33" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Elevado</v>
+        <f t="shared" si="23"/>
+        <v>Peça.Cerâmica</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q33" s="38" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="R33" s="27" t="s">
         <v>9</v>
@@ -5487,11 +5800,17 @@
         <v>90</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-33</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.33</v>
+      </c>
+      <c r="X33" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y33" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="23">
         <v>34</v>
       </c>
@@ -5508,7 +5827,7 @@
         <v>147</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>9</v>
@@ -5534,18 +5853,18 @@
         <v>Composição</v>
       </c>
       <c r="N34" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>Paginado</v>
       </c>
       <c r="O34" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Bloco.Vídro</v>
+        <f t="shared" si="23"/>
+        <v>Peça.Porcelanato</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R34" s="27" t="s">
         <v>9</v>
@@ -5566,11 +5885,17 @@
         <v>90</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-34</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.34</v>
+      </c>
+      <c r="X34" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y34" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="23">
         <v>35</v>
       </c>
@@ -5584,10 +5909,10 @@
         <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G35" s="29" t="s">
         <v>9</v>
@@ -5613,18 +5938,18 @@
         <v>Composição</v>
       </c>
       <c r="N35" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Contínuo</v>
+        <f t="shared" si="22"/>
+        <v>Paginado</v>
       </c>
       <c r="O35" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Carpete</v>
+        <f t="shared" si="23"/>
+        <v>Pedra.Natural</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q35" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="R35" s="27" t="s">
         <v>9</v>
@@ -5639,17 +5964,23 @@
       </c>
       <c r="U35" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>Contínuo</v>
+        <v>Paginado</v>
       </c>
       <c r="V35" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-35</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.35</v>
+      </c>
+      <c r="X35" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y35" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="23">
         <v>36</v>
       </c>
@@ -5663,10 +5994,10 @@
         <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G36" s="29" t="s">
         <v>9</v>
@@ -5684,51 +6015,57 @@
         <v>9</v>
       </c>
       <c r="L36" s="26" t="str">
-        <f t="shared" ref="L36:M38" si="14">CONCATENATE("", C36)</f>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M36" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N36" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Contínuo</v>
+        <f t="shared" si="22"/>
+        <v>Paginado</v>
       </c>
       <c r="O36" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Manta</v>
+        <f t="shared" si="23"/>
+        <v>Pedra.Sintética</v>
       </c>
       <c r="P36" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q36" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="R36" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S36" s="27" t="str">
-        <f t="shared" ref="S36:U38" si="15">SUBSTITUTE(C36, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T36" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U36" s="27" t="str">
-        <f t="shared" si="15"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V36" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-36</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.36</v>
+      </c>
+      <c r="X36" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y36" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="23">
         <v>37</v>
       </c>
@@ -5742,10 +6079,10 @@
         <v>107</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G37" s="29" t="s">
         <v>9</v>
@@ -5763,51 +6100,57 @@
         <v>9</v>
       </c>
       <c r="L37" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M37" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N37" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Contínuo</v>
+        <f t="shared" si="22"/>
+        <v>Paginado</v>
       </c>
       <c r="O37" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Cimentado</v>
+        <f t="shared" si="23"/>
+        <v>Elevado</v>
       </c>
       <c r="P37" s="21" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q37" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="R37" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T37" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U37" s="27" t="str">
-        <f t="shared" si="15"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V37" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-37</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.37</v>
+      </c>
+      <c r="X37" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y37" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="23">
         <v>38</v>
       </c>
@@ -5821,10 +6164,10 @@
         <v>107</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>9</v>
@@ -5842,150 +6185,497 @@
         <v>9</v>
       </c>
       <c r="L38" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>Piso</v>
       </c>
       <c r="M38" s="26" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N38" s="26" t="str">
-        <f t="shared" si="12"/>
-        <v>Contínuo</v>
+        <f t="shared" si="22"/>
+        <v>Paginado</v>
       </c>
       <c r="O38" s="21" t="str">
-        <f t="shared" si="13"/>
-        <v>Gramado</v>
+        <f t="shared" si="23"/>
+        <v>Bloco.Vídro</v>
       </c>
       <c r="P38" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q38" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R38" s="27" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Piso</v>
       </c>
       <c r="T38" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U38" s="27" t="str">
-        <f t="shared" si="15"/>
-        <v>Contínuo</v>
+        <f t="shared" si="1"/>
+        <v>Paginado</v>
       </c>
       <c r="V38" s="27" t="s">
         <v>90</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Piso-38</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pis.38</v>
+      </c>
+      <c r="X38" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y38" s="71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="23">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Piso</v>
+      </c>
+      <c r="M39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Composição</v>
+      </c>
+      <c r="N39" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O39" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>Carpete</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q39" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="R39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S39" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Piso</v>
+      </c>
+      <c r="T39" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Composição</v>
+      </c>
+      <c r="U39" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V39" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W39" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Pis.39</v>
+      </c>
+      <c r="X39" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" s="71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="23">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" s="26" t="str">
+        <f t="shared" ref="L40:M42" si="24">CONCATENATE("", C40)</f>
+        <v>Piso</v>
+      </c>
+      <c r="M40" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>Composição</v>
+      </c>
+      <c r="N40" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O40" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>Manta</v>
+      </c>
+      <c r="P40" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q40" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="R40" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="27" t="str">
+        <f t="shared" ref="S40:U42" si="25">SUBSTITUTE(C40, ".", " ")</f>
+        <v>Piso</v>
+      </c>
+      <c r="T40" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Composição</v>
+      </c>
+      <c r="U40" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V40" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W40" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Pis.40</v>
+      </c>
+      <c r="X40" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y40" s="71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="23">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>Piso</v>
+      </c>
+      <c r="M41" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>Composição</v>
+      </c>
+      <c r="N41" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O41" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>Cimentado</v>
+      </c>
+      <c r="P41" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q41" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S41" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Piso</v>
+      </c>
+      <c r="T41" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Composição</v>
+      </c>
+      <c r="U41" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V41" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W41" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Pis.41</v>
+      </c>
+      <c r="X41" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y41" s="71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="23">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>Piso</v>
+      </c>
+      <c r="M42" s="26" t="str">
+        <f t="shared" si="24"/>
+        <v>Composição</v>
+      </c>
+      <c r="N42" s="26" t="str">
+        <f t="shared" si="22"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="O42" s="21" t="str">
+        <f t="shared" si="23"/>
+        <v>Gramado</v>
+      </c>
+      <c r="P42" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q42" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="R42" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Piso</v>
+      </c>
+      <c r="T42" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Composição</v>
+      </c>
+      <c r="U42" s="27" t="str">
+        <f t="shared" si="25"/>
+        <v>Contínuo</v>
+      </c>
+      <c r="V42" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="W42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Pis.42</v>
+      </c>
+      <c r="X42" s="71" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y42" s="71" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="80" priority="1302"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="1314"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="79" priority="12"/>
+  <conditionalFormatting sqref="F1:F2 F7:F1048576">
+    <cfRule type="duplicateValues" dxfId="82" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="78" priority="1267"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="1266"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="1265"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="1264"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="1263"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="1262"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="1277"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="1276"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="1275"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="1274"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="1279"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="1278"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F13">
-    <cfRule type="duplicateValues" dxfId="72" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="51"/>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="duplicateValues" dxfId="75" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F17">
-    <cfRule type="duplicateValues" dxfId="61" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="26"/>
+  <conditionalFormatting sqref="F7:F17">
+    <cfRule type="duplicateValues" dxfId="63" priority="2292"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="2291"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2290"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2289"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="2294"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="2295"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="2296"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="2297"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="2298"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="2299"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="2293"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F38">
-    <cfRule type="duplicateValues" dxfId="54" priority="2188"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="2186"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="2178"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="2179"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="2180"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="2181"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="2182"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="2183"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="2184"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="2185"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2187"/>
+  <conditionalFormatting sqref="F18:F21">
+    <cfRule type="duplicateValues" dxfId="52" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="43" priority="2189"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="2190"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="2191"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2192"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="2193"/>
+  <conditionalFormatting sqref="F39:F42">
+    <cfRule type="duplicateValues" dxfId="45" priority="2190"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2191"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="2192"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="2193"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="2194"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2195"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="2196"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="2197"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="2198"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2199"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2200"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="2205"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="2204"/>
+  <conditionalFormatting sqref="F43:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="34" priority="2201"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="2202"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2203"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="2204"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="2205"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P13">
-    <cfRule type="duplicateValues" dxfId="36" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="32"/>
+  <conditionalFormatting sqref="F43:F1048576">
+    <cfRule type="duplicateValues" dxfId="29" priority="2216"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2217"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q7">
-    <cfRule type="duplicateValues" dxfId="25" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+  <conditionalFormatting sqref="Q3:Q11">
+    <cfRule type="duplicateValues" dxfId="27" priority="2311"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2312"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2313"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2314"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2315"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2316"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="2317"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2318"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="2319"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2320"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2321"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="duplicateValues" dxfId="16" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="25"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6204,7 +6894,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6220,16 +6910,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
   <dimension ref="A1:AS29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="7.3" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" style="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="53" customWidth="1"/>
+    <col min="3" max="3" width="6" style="53" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.07421875" style="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.3046875" style="59" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.3046875" style="58" bestFit="1" customWidth="1"/>
@@ -6238,40 +6928,40 @@
     <col min="9" max="9" width="2.84375" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.4609375" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.84375" style="58" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.07421875" style="58" customWidth="1"/>
-    <col min="13" max="13" width="5.61328125" style="58" customWidth="1"/>
-    <col min="14" max="14" width="7.61328125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="5.84375" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.53515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3046875" style="58" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.69140625" style="58" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.53515625" style="58" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.3046875" style="58" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.3828125" style="58" customWidth="1"/>
-    <col min="19" max="19" width="9.921875" style="58" customWidth="1"/>
-    <col min="20" max="20" width="4.53515625" style="58" customWidth="1"/>
-    <col min="21" max="21" width="11.3046875" style="58" customWidth="1"/>
+    <col min="18" max="18" width="5.765625" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.61328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.69140625" style="58" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="2.3828125" style="58" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.921875" style="58" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="2.23046875" style="58" bestFit="1" customWidth="1"/>
     <col min="46" max="16384" width="9.23046875" style="53"/>
   </cols>
   <sheetData>
@@ -6554,7 +7244,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C3" s="48" t="s">
         <v>258</v>
@@ -6563,7 +7253,7 @@
         <v>91</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F3" s="43" t="s">
         <v>9</v>
@@ -7000,8 +7690,8 @@
       <c r="M6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="52" t="s">
-        <v>111</v>
+      <c r="N6" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O6" s="45" t="s">
         <v>9</v>
@@ -7137,8 +7827,8 @@
       <c r="M7" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="52" t="s">
-        <v>111</v>
+      <c r="N7" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O7" s="45" t="s">
         <v>9</v>
@@ -7274,8 +7964,8 @@
       <c r="M8" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="52" t="s">
-        <v>111</v>
+      <c r="N8" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O8" s="45" t="s">
         <v>9</v>
@@ -7411,8 +8101,8 @@
       <c r="M9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="52" t="s">
-        <v>111</v>
+      <c r="N9" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O9" s="45" t="s">
         <v>9</v>
@@ -10158,10 +10848,10 @@
         <v>256</v>
       </c>
       <c r="P29" s="68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="R29" s="66" t="s">
         <v>240</v>
@@ -10250,6 +10940,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -10321,15 +11016,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
